--- a/biology/Botanique/Pink_Fir_Apple/Pink_Fir_Apple.xlsx
+++ b/biology/Botanique/Pink_Fir_Apple/Pink_Fir_Apple.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La 'Pink Fir Apple' est une variété de pomme de terre traditionnelle d'origine britannique créée vers 1850[réf. nécessaire]. Elle est inscrite au catalogue officiel des variétés au Royaume-Uni depuis le 16 octobre 1979[1].
-C'est une pomme de terre de consommation, de bonne conservation. Elle est connue aussi sous les noms de  'Corne de Gatte' ou Cwène di Gatte (qui signifie  « corne de chèvre » en wallon)[2]. En Allemagne, son nom vernaculaire est 'Rosa Tannenzapfen'[3].
+La 'Pink Fir Apple' est une variété de pomme de terre traditionnelle d'origine britannique créée vers 1850[réf. nécessaire]. Elle est inscrite au catalogue officiel des variétés au Royaume-Uni depuis le 16 octobre 1979.
+C'est une pomme de terre de consommation, de bonne conservation. Elle est connue aussi sous les noms de  'Corne de Gatte' ou Cwène di Gatte (qui signifie  « corne de chèvre » en wallon). En Allemagne, son nom vernaculaire est 'Rosa Tannenzapfen'.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les tubercules, très allongés, de forme irrégulière, ont la peau rouge et une chair jaune clair. Les yeux sont profondément enfoncés[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les tubercules, très allongés, de forme irrégulière, ont la peau rouge et une chair jaune clair. Les yeux sont profondément enfoncés.
 </t>
         </is>
       </c>
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
